--- a/PLANILHA FINANCEIRA.xlsx
+++ b/PLANILHA FINANCEIRA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caixa-my.sharepoint.com/personal/c069795_corp_caixa_gov_br/Documents/CAIXA/Planilha/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="678" documentId="11_AD4D361C20488DEA4E38A01884D95F445BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{201AE643-4DBF-4DA4-B430-CCF514D8FFE6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A23F4C28-8671-4E3E-99BB-DBA4298BDED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1930" yWindow="8890" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1930" yWindow="8890" windowWidth="19420" windowHeight="10300" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Controller" sheetId="2" r:id="rId2"/>
-    <sheet name="Caixinha" sheetId="4" r:id="rId3"/>
+    <sheet name="DATA" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Controller" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Caixinha" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="80">
   <si>
     <t>Data</t>
   </si>
@@ -292,6 +292,9 @@
   <si>
     <t>Total Reservado</t>
   </si>
+  <si>
+    <t>Meta de Reserva</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +305,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +328,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +355,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -354,13 +369,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,8 +431,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Moeda 2" xfId="2" xr:uid="{EAAD8238-DC73-4F8E-8CD7-DB7BE7532F18}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
@@ -411,10 +444,10 @@
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2096,6 +2129,300 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.553976507935442E-2"/>
+          <c:y val="0"/>
+          <c:w val="0.92181251682542031"/>
+          <c:h val="0.89598108747044913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Caixinha!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DEA3-4994-9B70-9D8B6607C250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="94712624"/>
+        <c:axId val="2043020672"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="89000">
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Caixinha!$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEA3-4994-9B70-9D8B6607C250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2045457984"/>
+        <c:axId val="88084768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="94712624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2043020672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2043020672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94712624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88084768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2045457984"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2045457984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88084768"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2176,6 +2503,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3150,6 +3517,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3708,8 +4580,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>58738</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="23" name="Mês">
@@ -3732,7 +4604,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4446,6 +5318,44 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395289</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>301626</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>34926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DAA436-B777-470C-94D1-7BF48C25F5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5005,7 +5915,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6429278D-2C8E-4A1C-B390-C8FBF3CA49B4}" name="Tabela dinâmica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6429278D-2C8E-4A1C-B390-C8FBF3CA49B4}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="F6:G11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -5115,7 +6025,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9008EE69-BD13-43CE-A43E-576493D44EAF}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9008EE69-BD13-43CE-A43E-576493D44EAF}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="C6:D22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -5338,8 +6248,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{24A7A32B-F429-4694-A443-E8907274C098}" name="Tabela4" displayName="Tabela4" ref="C6:D20" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="C6:D19" xr:uid="{24A7A32B-F429-4694-A443-E8907274C098}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F3C11B72-328C-4876-BF3C-241C5561D1C6}" name="Data de Lançamento" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{765E2E15-BA42-44DE-8FA1-26EB4FFD119B}" name="Depósito Reservado" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F3C11B72-328C-4876-BF3C-241C5561D1C6}" name="Data de Lançamento" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{765E2E15-BA42-44DE-8FA1-26EB4FFD119B}" name="Depósito Reservado" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7071,7 +7981,7 @@
   </sheetPr>
   <dimension ref="C1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -7083,8 +7993,20 @@
   <sheetData>
     <row r="1" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>78</v>
+      </c>
+      <c r="D3" s="14">
+        <f>SUM(Tabela4[Depósito Reservado])</f>
+        <v>6267</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -7250,8 +8172,8 @@
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
